--- a/resource/client_bugs_20_12_2017.xlsx
+++ b/resource/client_bugs_20_12_2017.xlsx
@@ -216,7 +216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,14 +248,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -574,289 +568,289 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -875,44 +869,44 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -987,114 +981,114 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1113,16 +1107,16 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1141,30 +1135,30 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>52</v>
       </c>
     </row>
